--- a/RTSIS-SUBMISSION-SEQUENCE-REPORT.xlsx
+++ b/RTSIS-SUBMISSION-SEQUENCE-REPORT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\mcb\rtsis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83326167-C15B-4703-8164-CE8DABDDBAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45918C28-9DDA-4117-B6C7-FEC672039052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Submission Sequence" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="180">
   <si>
     <t>S/No</t>
   </si>
@@ -578,12 +578,24 @@
   <si>
     <t>Approved</t>
   </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>mcb</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -676,8 +688,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,6 +712,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -729,13 +753,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -771,9 +796,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{AD37B7A3-7F9F-43BD-ACC1-0D891C3A3571}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{6D237FD4-A055-4277-ADDE-D0CCBB383165}"/>
@@ -1108,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2638,7 +2668,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="13.5">
+    <row r="58" spans="1:13" ht="27">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3662,6 +3692,53 @@
       <c r="L97" s="15" t="s">
         <v>169</v>
       </c>
+    </row>
+    <row r="100" spans="1:12" ht="15">
+      <c r="G100" s="19"/>
+      <c r="H100" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="I100" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15">
+      <c r="G101" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H101" s="19">
+        <v>16</v>
+      </c>
+      <c r="I101" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15">
+      <c r="G102" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H102" s="19">
+        <v>57</v>
+      </c>
+      <c r="I102" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="15">
+      <c r="G103" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H103" s="19">
+        <v>23</v>
+      </c>
+      <c r="I103" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15">
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
